--- a/pages/schedule_system/data_list.xlsx
+++ b/pages/schedule_system/data_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="118">
   <si>
     <t>编号</t>
   </si>
@@ -55,333 +55,334 @@
     <t>付款情况</t>
   </si>
   <si>
+    <t>罗丹延</t>
+  </si>
+  <si>
+    <t>菜鸟</t>
+  </si>
+  <si>
+    <t>宋进</t>
+  </si>
+  <si>
+    <t>高级运营解决方案专家</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>已结束</t>
+  </si>
+  <si>
+    <t>已签发</t>
+  </si>
+  <si>
+    <t>已付清</t>
+  </si>
+  <si>
+    <t>孙硕臣</t>
+  </si>
+  <si>
+    <t>普华永道</t>
+  </si>
+  <si>
+    <t>何雍森</t>
+  </si>
+  <si>
+    <t>高级审计经理</t>
+  </si>
+  <si>
+    <t>洪丽珺</t>
+  </si>
+  <si>
+    <t>谭赟慧</t>
+  </si>
+  <si>
+    <t>宝洁</t>
+  </si>
+  <si>
+    <t>陈韵如</t>
+  </si>
+  <si>
+    <t>City Manager</t>
+  </si>
+  <si>
+    <t>肖祁晴</t>
+  </si>
+  <si>
+    <t>张雨佳</t>
+  </si>
+  <si>
+    <t>毕马威</t>
+  </si>
+  <si>
+    <t>李敏威</t>
+  </si>
+  <si>
+    <t>李迅</t>
+  </si>
+  <si>
+    <t>孙千惠</t>
+  </si>
+  <si>
+    <t>蓝恭旭</t>
+  </si>
+  <si>
+    <t>霍子鑫</t>
+  </si>
+  <si>
+    <t>黎旖旎</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>张荣斌</t>
+  </si>
+  <si>
+    <t>高级项目经理</t>
+  </si>
+  <si>
+    <t>程荟璇</t>
+  </si>
+  <si>
+    <t>摩根士丹利</t>
+  </si>
+  <si>
+    <t>朱献饶</t>
+  </si>
+  <si>
+    <t>ECM Analyst</t>
+  </si>
+  <si>
+    <t>陈睿昳</t>
+  </si>
+  <si>
+    <t>刘恺祯</t>
+  </si>
+  <si>
+    <t>朱沛颖</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>张婧</t>
+  </si>
+  <si>
+    <t>孙雨正</t>
+  </si>
+  <si>
+    <t>草拟中</t>
+  </si>
+  <si>
+    <t>王一淳</t>
+  </si>
+  <si>
+    <t>待签发</t>
+  </si>
+  <si>
+    <t>张雅颂</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>常晓萌</t>
+  </si>
+  <si>
+    <t>陆畅</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>谢成远</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>姜晶辉</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>郑谭</t>
+  </si>
+  <si>
+    <t>段力方</t>
+  </si>
+  <si>
+    <t>薛佳学</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>张婷锐</t>
+  </si>
+  <si>
+    <t>金豆豆</t>
+  </si>
+  <si>
+    <t>王懿行</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>倪朝杰</t>
+  </si>
+  <si>
+    <t>刘正生</t>
+  </si>
+  <si>
+    <t>曹中廷</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>张子悦</t>
+  </si>
+  <si>
+    <t>德勤</t>
+  </si>
+  <si>
+    <t>王顺恺</t>
+  </si>
+  <si>
+    <t>宝靖雯</t>
+  </si>
+  <si>
+    <t>麦肯锡</t>
+  </si>
+  <si>
+    <t>张凡</t>
+  </si>
+  <si>
+    <t>咨询经理</t>
+  </si>
+  <si>
+    <t>李靖语</t>
+  </si>
+  <si>
+    <t>赵俊鑫</t>
+  </si>
+  <si>
+    <t>周舒琪</t>
+  </si>
+  <si>
+    <t>沈子杰</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>达妍如</t>
+  </si>
+  <si>
+    <t>翟楚寒</t>
+  </si>
+  <si>
+    <t>付靖皓</t>
+  </si>
+  <si>
+    <t>叶昕航</t>
+  </si>
+  <si>
+    <t>窦琳</t>
+  </si>
+  <si>
+    <t>刘璐</t>
+  </si>
+  <si>
+    <t>何媛</t>
+  </si>
+  <si>
+    <t>赵思琪</t>
+  </si>
+  <si>
+    <t>刘子琪</t>
+  </si>
+  <si>
+    <t>刘欣怡</t>
+  </si>
+  <si>
+    <t>许馨怡</t>
+  </si>
+  <si>
+    <t>高级咨询经理</t>
+  </si>
+  <si>
+    <t>林温妮</t>
+  </si>
+  <si>
+    <t>谢欢</t>
+  </si>
+  <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>王旭辉</t>
+  </si>
+  <si>
+    <t>张小欢</t>
+  </si>
+  <si>
+    <t>陈施龙</t>
+  </si>
+  <si>
+    <t>韦诗伦</t>
+  </si>
+  <si>
+    <t>东方证券</t>
+  </si>
+  <si>
+    <t>戴骥云</t>
+  </si>
+  <si>
+    <t>分析师</t>
+  </si>
+  <si>
+    <t>周惟风</t>
+  </si>
+  <si>
+    <t>高盛</t>
+  </si>
+  <si>
+    <t>周琛</t>
+  </si>
+  <si>
+    <t>蔡田奋若</t>
+  </si>
+  <si>
+    <t>何皎闻</t>
+  </si>
+  <si>
+    <t>周书卉</t>
+  </si>
+  <si>
+    <t>赵子圣</t>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>罗丹延</t>
-  </si>
-  <si>
-    <t>菜鸟</t>
-  </si>
-  <si>
-    <t>宋进</t>
-  </si>
-  <si>
-    <t>高级运营解决方案专家</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>已结束</t>
-  </si>
-  <si>
-    <t>已签发</t>
-  </si>
-  <si>
-    <t>已付清</t>
-  </si>
-  <si>
-    <t>孙硕臣</t>
-  </si>
-  <si>
-    <t>普华永道</t>
-  </si>
-  <si>
-    <t>何雍森</t>
-  </si>
-  <si>
-    <t>高级审计经理</t>
-  </si>
-  <si>
-    <t>洪丽珺</t>
-  </si>
-  <si>
-    <t>谭赟慧</t>
-  </si>
-  <si>
-    <t>宝洁</t>
-  </si>
-  <si>
-    <t>陈韵如</t>
-  </si>
-  <si>
-    <t>City Manager</t>
-  </si>
-  <si>
-    <t>肖祁晴</t>
-  </si>
-  <si>
-    <t>张雨佳</t>
-  </si>
-  <si>
-    <t>毕马威</t>
-  </si>
-  <si>
-    <t>李敏威</t>
-  </si>
-  <si>
-    <t>李迅</t>
-  </si>
-  <si>
-    <t>孙千惠</t>
-  </si>
-  <si>
-    <t>蓝恭旭</t>
-  </si>
-  <si>
-    <t>霍子鑫</t>
-  </si>
-  <si>
-    <t>黎旖旎</t>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-  </si>
-  <si>
-    <t>张荣斌</t>
-  </si>
-  <si>
-    <t>高级项目经理</t>
-  </si>
-  <si>
-    <t>程荟璇</t>
-  </si>
-  <si>
-    <t>摩根士丹利</t>
-  </si>
-  <si>
-    <t>朱献饶</t>
-  </si>
-  <si>
-    <t>ECM Analyst</t>
-  </si>
-  <si>
-    <t>陈睿昳</t>
-  </si>
-  <si>
-    <t>刘恺祯</t>
-  </si>
-  <si>
-    <t>朱沛颖</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>张婧</t>
-  </si>
-  <si>
-    <t>孙雨正</t>
-  </si>
-  <si>
-    <t>草拟中</t>
-  </si>
-  <si>
-    <t>王一淳</t>
-  </si>
-  <si>
-    <t>待签发</t>
-  </si>
-  <si>
-    <t>张雅颂</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>常晓萌</t>
-  </si>
-  <si>
-    <t>陆畅</t>
-  </si>
-  <si>
-    <t>6.20</t>
-  </si>
-  <si>
-    <t>谢成远</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>姜晶辉</t>
-  </si>
-  <si>
-    <t>2/4</t>
-  </si>
-  <si>
-    <t>郑谭</t>
-  </si>
-  <si>
-    <t>段力方</t>
-  </si>
-  <si>
-    <t>薛佳学</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>张婷锐</t>
-  </si>
-  <si>
-    <t>金豆豆</t>
-  </si>
-  <si>
-    <t>王懿行</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>倪朝杰</t>
-  </si>
-  <si>
-    <t>刘正生</t>
-  </si>
-  <si>
-    <t>曹中廷</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>张子悦</t>
-  </si>
-  <si>
-    <t>德勤</t>
-  </si>
-  <si>
-    <t>王顺恺</t>
-  </si>
-  <si>
-    <t>宝靖雯</t>
-  </si>
-  <si>
-    <t>麦肯锡</t>
-  </si>
-  <si>
-    <t>张凡</t>
-  </si>
-  <si>
-    <t>咨询经理</t>
-  </si>
-  <si>
-    <t>李靖语</t>
-  </si>
-  <si>
-    <t>赵俊鑫</t>
-  </si>
-  <si>
-    <t>周舒琪</t>
-  </si>
-  <si>
-    <t>沈子杰</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>达妍如</t>
-  </si>
-  <si>
-    <t>翟楚寒</t>
-  </si>
-  <si>
-    <t>付靖皓</t>
-  </si>
-  <si>
-    <t>叶昕航</t>
-  </si>
-  <si>
-    <t>窦琳</t>
-  </si>
-  <si>
-    <t>刘璐</t>
-  </si>
-  <si>
-    <t>何媛</t>
-  </si>
-  <si>
-    <t>赵思琪</t>
-  </si>
-  <si>
-    <t>刘子琪</t>
-  </si>
-  <si>
-    <t>刘欣怡</t>
-  </si>
-  <si>
-    <t>许馨怡</t>
-  </si>
-  <si>
-    <t>高级咨询经理</t>
-  </si>
-  <si>
-    <t>林温妮</t>
-  </si>
-  <si>
-    <t>谢欢</t>
-  </si>
-  <si>
-    <t>刘洋</t>
-  </si>
-  <si>
-    <t>王旭辉</t>
-  </si>
-  <si>
-    <t>张小欢</t>
-  </si>
-  <si>
-    <t>陈施龙</t>
-  </si>
-  <si>
-    <t>韦诗伦</t>
-  </si>
-  <si>
-    <t>东方证券</t>
-  </si>
-  <si>
-    <t>戴骥云</t>
-  </si>
-  <si>
-    <t>分析师</t>
-  </si>
-  <si>
-    <t>周惟风</t>
-  </si>
-  <si>
-    <t>高盛</t>
-  </si>
-  <si>
-    <t>周琛</t>
-  </si>
-  <si>
-    <t>蔡田奋若</t>
-  </si>
-  <si>
-    <t>何皎闻</t>
-  </si>
-  <si>
-    <t>周书卉</t>
-  </si>
-  <si>
-    <t>赵子圣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,151 +410,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,198 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -788,251 +465,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1089,57 +524,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1401,21 +789,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="R53" sqref="R53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
@@ -1429,7 +816,7 @@
     <col min="13" max="13" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:13">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +854,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1478,25 +868,25 @@
         <v>43896</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="12">
         <v>43862</v>
@@ -1505,13 +895,13 @@
         <v>7000</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="7">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1519,25 +909,25 @@
         <v>43896</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J3" s="12">
         <v>43948</v>
@@ -1546,13 +936,13 @@
         <v>6000</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1560,25 +950,25 @@
         <v>43896</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J4" s="12">
         <v>43938</v>
@@ -1587,13 +977,13 @@
         <v>6000</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1601,25 +991,25 @@
         <v>43896</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J5" s="12">
         <v>43978</v>
@@ -1628,13 +1018,13 @@
         <v>6000</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1642,25 +1032,25 @@
         <v>43896</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J6" s="12">
         <v>43960</v>
@@ -1669,13 +1059,13 @@
         <v>6000</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1683,25 +1073,25 @@
         <v>43896</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J7" s="12">
         <v>43929</v>
@@ -1710,13 +1100,13 @@
         <v>6000</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1724,25 +1114,25 @@
         <v>43922</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J8" s="12">
         <v>43978</v>
@@ -1751,13 +1141,13 @@
         <v>6000</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1765,25 +1155,25 @@
         <v>43891</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J9" s="12">
         <v>43959</v>
@@ -1792,13 +1182,13 @@
         <v>6000</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1806,25 +1196,25 @@
         <v>43922</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="12">
         <v>43974</v>
@@ -1833,13 +1223,13 @@
         <v>6000</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1847,25 +1237,25 @@
         <v>43922</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J11" s="12">
         <v>43976</v>
@@ -1874,13 +1264,13 @@
         <v>6000</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1888,25 +1278,25 @@
         <v>43922</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J12" s="12">
         <v>43987</v>
@@ -1915,13 +1305,13 @@
         <v>7000</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1929,25 +1319,25 @@
         <v>43922</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J13" s="12">
         <v>43987</v>
@@ -1956,13 +1346,13 @@
         <v>8000</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1970,25 +1360,25 @@
         <v>43922</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J14" s="12">
         <v>43987</v>
@@ -2001,7 +1391,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2009,25 +1399,25 @@
         <v>43922</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J15" s="12">
         <v>43987</v>
@@ -2040,7 +1430,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2048,19 +1438,19 @@
         <v>43957</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -2073,7 +1463,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2081,25 +1471,25 @@
         <v>43957</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="J17" s="12">
         <v>44018</v>
@@ -2112,7 +1502,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2120,25 +1510,25 @@
         <v>43958</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="7">
@@ -2149,7 +1539,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2157,25 +1547,25 @@
         <v>43958</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="7">
@@ -2186,7 +1576,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2194,19 +1584,19 @@
         <v>43970</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -2219,7 +1609,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2227,19 +1617,19 @@
         <v>43970</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -2252,7 +1642,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2260,22 +1650,22 @@
         <v>43973</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="12"/>
@@ -2287,7 +1677,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2295,19 +1685,19 @@
         <v>43973</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -2320,7 +1710,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2328,19 +1718,19 @@
         <v>43976</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H24" s="9">
         <v>7.1</v>
@@ -2355,7 +1745,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2363,25 +1753,25 @@
         <v>43976</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="I25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="7">
@@ -2392,7 +1782,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2400,25 +1790,25 @@
         <v>43976</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="I26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="7">
@@ -2429,7 +1819,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2437,22 +1827,22 @@
         <v>43987</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="12"/>
@@ -2464,7 +1854,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2472,22 +1862,22 @@
         <v>43987</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="12"/>
@@ -2499,7 +1889,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2507,25 +1897,25 @@
         <v>43990</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="I29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="7">
@@ -2536,7 +1926,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2544,22 +1934,22 @@
         <v>43992</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="12"/>
@@ -2571,7 +1961,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2579,19 +1969,19 @@
         <v>43993</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
@@ -2604,7 +1994,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2612,25 +2002,25 @@
         <v>43993</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="I32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="7">
@@ -2641,7 +2031,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2649,22 +2039,22 @@
         <v>43998</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="12"/>
@@ -2676,7 +2066,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2684,22 +2074,22 @@
         <v>43998</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="12"/>
@@ -2711,7 +2101,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2719,19 +2109,19 @@
         <v>44004</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="G35" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="7"/>
@@ -2744,7 +2134,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2752,19 +2142,19 @@
         <v>44004</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
@@ -2777,7 +2167,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2785,22 +2175,22 @@
         <v>44005</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G37" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="12"/>
@@ -2812,7 +2202,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2820,22 +2210,22 @@
         <v>44005</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="12"/>
@@ -2847,7 +2237,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2855,19 +2245,19 @@
         <v>44005</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="7"/>
@@ -2880,7 +2270,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2888,19 +2278,19 @@
         <v>44005</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="7"/>
@@ -2913,7 +2303,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2921,19 +2311,19 @@
         <v>44005</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
@@ -2946,7 +2336,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2954,22 +2344,22 @@
         <v>44005</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G42" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="12"/>
@@ -2981,7 +2371,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2989,22 +2379,22 @@
         <v>44005</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="12"/>
@@ -3016,7 +2406,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -3024,19 +2414,19 @@
         <v>44010</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G44" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="7"/>
@@ -3049,7 +2439,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -3057,19 +2447,19 @@
         <v>44010</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
@@ -3082,7 +2472,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3090,19 +2480,19 @@
         <v>44010</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
@@ -3115,7 +2505,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3123,19 +2513,19 @@
         <v>44011</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G47" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="7"/>
@@ -3148,7 +2538,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -3156,19 +2546,19 @@
         <v>44015</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G48" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="7"/>
@@ -3181,7 +2571,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3189,19 +2579,19 @@
         <v>44016</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="7"/>
@@ -3214,7 +2604,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -3222,19 +2612,19 @@
         <v>44018</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G50" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
@@ -3247,7 +2637,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3255,19 +2645,19 @@
         <v>44020</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G51" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="7"/>
@@ -3280,7 +2670,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -3288,19 +2678,19 @@
         <v>44020</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G52" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="7"/>
@@ -3313,7 +2703,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -3321,19 +2711,19 @@
         <v>44020</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G53" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="7"/>
@@ -3346,7 +2736,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -3354,19 +2744,19 @@
         <v>44020</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G54" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="7"/>
@@ -3379,7 +2769,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3387,19 +2777,19 @@
         <v>44020</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G55" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="7"/>
@@ -3412,7 +2802,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3420,19 +2810,19 @@
         <v>44020</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F56" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="7"/>
@@ -3445,7 +2835,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3453,19 +2843,19 @@
         <v>44020</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F57" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="7"/>
@@ -3478,7 +2868,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3486,19 +2876,19 @@
         <v>44021</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="7"/>
@@ -3511,7 +2901,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3519,19 +2909,19 @@
         <v>44021</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="G59" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="7"/>
@@ -3544,7 +2934,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3552,19 +2942,19 @@
         <v>44025</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G60" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="7"/>
@@ -3577,7 +2967,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3593,7 +2983,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3609,7 +2999,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3625,7 +3015,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3641,7 +3031,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3657,7 +3047,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3673,7 +3063,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3689,7 +3079,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3705,7 +3095,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3721,7 +3111,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3737,7 +3127,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3753,7 +3143,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -3769,7 +3159,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -3785,7 +3175,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -3801,7 +3191,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -3817,7 +3207,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -3833,7 +3223,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3849,7 +3239,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -3865,7 +3255,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -3881,7 +3271,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -3897,7 +3287,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -3913,7 +3303,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -3929,7 +3319,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -3945,7 +3335,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -3961,7 +3351,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -3977,7 +3367,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -3993,7 +3383,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -4009,7 +3399,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -4025,7 +3415,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -4041,7 +3431,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -4057,7 +3447,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -4073,7 +3463,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -4089,7 +3479,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -4105,7 +3495,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -4121,7 +3511,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -4137,7 +3527,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -4153,7 +3543,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -4169,7 +3559,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -4185,7 +3575,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -4201,7 +3591,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -4217,7 +3607,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -4233,7 +3623,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -4249,7 +3639,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -4265,7 +3655,7 @@
       <c r="L103" s="14"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -4281,7 +3671,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -4297,7 +3687,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -4313,7 +3703,7 @@
       <c r="L106" s="14"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -4327,7 +3717,7 @@
       <c r="L107" s="14"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -4341,7 +3731,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -4355,7 +3745,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4369,7 +3759,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -4383,7 +3773,7 @@
       <c r="L111" s="14"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -4397,7 +3787,7 @@
       <c r="L112" s="14"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -4411,7 +3801,7 @@
       <c r="L113" s="14"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4425,7 +3815,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4439,7 +3829,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4453,7 +3843,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4467,7 +3857,7 @@
       <c r="L117" s="14"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4482,12 +3872,8 @@
       <c r="M118" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M106">
-    <sortState ref="A1:M106">
-      <sortCondition ref="E1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:M106"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I13 I14 I15 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I42 I43 I44 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I2:I9 I11:I12 I16:I19 I20:I23 I40:I41 I45:I46 I61:I1048576">
       <formula1>"草拟中,修改中,待签发,已邮寄,已签发"</formula1>
@@ -4495,6 +3881,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>